--- a/data/financial_statements/sofp/MKTX.xlsx
+++ b/data/financial_statements/sofp/MKTX.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,1818 +590,1851 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>369000000</v>
+        <v>565485000</v>
       </c>
       <c r="C2">
-        <v>341000000</v>
+        <v>402516000</v>
       </c>
       <c r="D2">
-        <v>415000000</v>
+        <v>375117000</v>
       </c>
       <c r="E2">
-        <v>557000000</v>
+        <v>450629000</v>
       </c>
       <c r="F2">
-        <v>483000000</v>
+        <v>592972000</v>
       </c>
       <c r="G2">
+        <v>518616000</v>
+      </c>
+      <c r="H2">
         <v>499558000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>465306000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>539028000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>391675000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>535520000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>499428000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>500601000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>556152000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>518074000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>483411000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>486427000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>446186000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>420277000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>400440000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>406535000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>376213000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>365504000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>356214000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>362647000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>332099000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>299605000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>285221000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>284434000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>255892000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>236780000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>223243000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>233787000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>212121000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>198896000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>193528000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>200433000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>177446000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>149947000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>142978000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>554785000</v>
+      </c>
+      <c r="C3">
         <v>672204000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>705292000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>796647000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>472227000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>619607000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>562864000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>652409000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>359492000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>462559000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>99222000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>93572000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>62017000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>72812000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>66332000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>70946000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>57535000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>62004000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>61883000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>67529000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>52636000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>63027000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>55215000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>56642000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>50668000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>56583000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>62860000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>52755000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>40459000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>49280000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>46938000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>46062000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>33836000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>36947000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>40896000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>39077000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>34158000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>36876000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>41826000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>35467000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1188559000</v>
+      </c>
+      <c r="C4">
         <v>1144897000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1145457000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1276585000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1092265000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1169171000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1096131000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1143658000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>927559000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>880425000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>675844000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>613289000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>593889000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>647555000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>607003000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>571576000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>566430000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>526784000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>503190000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>485857000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>477888000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>455414000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>441777000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>426650000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>424933000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>400440000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>375928000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>350820000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>334773000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>312345000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>296314000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>276512000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>274308000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>257868000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>252148000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>241938000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>245231000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>224865000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>202977000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>187376000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>160000000</v>
+        <v>100256000</v>
       </c>
       <c r="C5">
-        <v>162000000</v>
+        <v>93512000</v>
       </c>
       <c r="D5">
-        <v>164000000</v>
+        <v>93255000</v>
       </c>
       <c r="E5">
-        <v>167000000</v>
+        <v>95302000</v>
       </c>
       <c r="F5">
-        <v>168000000</v>
+        <v>96061000</v>
       </c>
       <c r="G5">
+        <v>95575000</v>
+      </c>
+      <c r="H5">
         <v>93108000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>88655000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>85204000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>82074000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>78461000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>74926000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>71795000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>66531000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>64206000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>61047000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>63010000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>54320000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>50088000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>39623000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>38548000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>35321000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>34643000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>33888000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>31104000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>30773000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>31495000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>32094000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>30897000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>31027000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>31290000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>31190000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>32185000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>32800000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>34396000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>33393000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>32703000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>27617000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>26443000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>18743000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>255000000</v>
+        <v>252854000</v>
       </c>
       <c r="C6">
-        <v>260000000</v>
+        <v>254676000</v>
       </c>
       <c r="D6">
-        <v>266000000</v>
+        <v>260396000</v>
       </c>
       <c r="E6">
-        <v>271000000</v>
+        <v>266409000</v>
       </c>
       <c r="F6">
-        <v>275000000</v>
+        <v>271166000</v>
       </c>
       <c r="G6">
+        <v>274586000</v>
+      </c>
+      <c r="H6">
         <v>274778000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>238333000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>242742000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>206261000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>206946000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>207679000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>207847000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>62387000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>62483000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>62579000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>62675000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>62771000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>62867000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>62963000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>63059000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>63155000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>63251000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>63347000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>63443000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>63539000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>63635000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>63731000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>64142000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>64712000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>65281000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>65850000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>66419000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>66989000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>67558000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>68127000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>68697000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>69508000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>71447000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>72123000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7">
         <v>331000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>52000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>33000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>58000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>501000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3163000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1595000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1417000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3424000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2256000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1453000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>830000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1737000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>8457000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>7370000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>6829000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>8562000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>7399000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>6057000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>5197000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>9229000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>8238000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>6061000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>5142000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>6972000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>5252000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>2617000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2915000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>7279000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>4312000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>4511000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>4639000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>70000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>65000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>29000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>27000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>31000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>34000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>26000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>29000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>26000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>21000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>18000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>27000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>75390000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>76722000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>78190000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>353110000</v>
+      </c>
+      <c r="C9">
         <v>348188000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>353651000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>361711000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>367227000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>370161000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>367886000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>326988000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>327946000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>288387000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>285440000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>282663000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>279642000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>132081000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>128284000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>125043000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>129109000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>119347000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>114408000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>103416000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>103344000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>106933000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>105264000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>104064000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>103109000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>101711000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>101187000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>101022000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>104268000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>103977000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>102632000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>102182000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>105576000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>105041000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>104571000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>104435000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>108679000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>107823000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>102401000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>95505000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>1560000000</v>
+        <v>1607775000</v>
       </c>
       <c r="C10">
-        <v>1568000000</v>
+        <v>1559747000</v>
       </c>
       <c r="D10">
-        <v>1707000000</v>
+        <v>1567710000</v>
       </c>
       <c r="E10">
-        <v>1530000000</v>
+        <v>1707485000</v>
       </c>
       <c r="F10">
-        <v>1612000000</v>
+        <v>1530452000</v>
       </c>
       <c r="G10">
+        <v>1611918000</v>
+      </c>
+      <c r="H10">
         <v>1537923000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1545869000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1331429000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1245504000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1039217000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>975603000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>954930000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>855026000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>812009000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>774809000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>695539000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>646131000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>617598000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>589273000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>581232000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>562347000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>547041000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>530714000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>528042000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>502151000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>477115000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>451842000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>439041000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>416322000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>398946000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>378694000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>379884000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>362909000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>356719000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>346373000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>353910000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>332688000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>305378000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>282881000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>359256000</v>
+      </c>
+      <c r="C11">
         <v>384247000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>418008000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>528773000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>300543000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>372739000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>344175000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>388470000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>177680000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>163417000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>22624000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>34764000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>22793000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>16285000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>17050000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>13717000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>29366000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>19339000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>20041000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>14532000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>14241000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>12714000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>14971000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>16269000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>15149000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>15265000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>15146000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>16999000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>12257000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>13388000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>13271000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>12756000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>11961000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>11283000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>18594000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>19207000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>12859000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>20431000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>16868000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>19231000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>56302000</v>
+      </c>
+      <c r="C12">
         <v>45217000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>35685000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>26166000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>59719000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>49046000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>39278000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>28223000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>62326000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>50926000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>39434000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>21929000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>47365000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>35082000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>26669000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>16699000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>39053000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>31468000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>23612000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>15611000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>36502000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>31027000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>23080000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>13872000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>34783000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>28546000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>20212000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>10910000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>29296000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>22838000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>16109000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>8960000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>25310000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>18384000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>12196000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>6183000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>24001000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>19229000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>12509000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>5751000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>3000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>5000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>8000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>88000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>90000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>91000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>93000000</v>
-      </c>
-      <c r="I13">
-        <v>94000000</v>
       </c>
       <c r="J13">
         <v>94000000</v>
       </c>
       <c r="K13">
+        <v>94000000</v>
+      </c>
+      <c r="L13">
         <v>95000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>96000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>98000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>28448000</v>
+      </c>
+      <c r="C14">
         <v>28257000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>27660000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>42614000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>40456000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>44871000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>41345000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>48193000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>42750000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>34822000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>24906000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>20776000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>16690000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>13274000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>12860000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>18857000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>16432000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>12921000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>12972000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>18412000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>13061000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>4507000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>4686000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>15028000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>7582000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>3634000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>3000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>10915000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>4463000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>4410000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>7059000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>9583000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>5940000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>3668000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>3975000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15">
         <v>4248000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5092000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>4068000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3950000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>3499000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>3731000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3810000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>3545000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2810000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3785000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3595000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>3554000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>2660000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>3191000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>3076000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>3190000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2515000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>3006000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>2606000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>2602000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>2312000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>2215000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>2650000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>2725000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>2465000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>3271000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>2950000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>2722000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>2713000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>3106000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>5437000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>5398000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>444006000</v>
+      </c>
+      <c r="C16">
         <v>457721000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>481353000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>597553000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>400718000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>466656000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>424798000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>464886000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>282756000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>254257000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>91032000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>81419000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>86848000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>68372000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>60389000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>52818000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>87661000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>67513000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>60220000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>52109000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>66464000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>51439000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>45813000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>48359000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>60029000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>50451000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>40964000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>41426000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>48328000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>42851000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>39089000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>34024000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>45676000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>36606000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>33740000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>28112000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>43548000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>42766000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>34814000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>30380000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>81000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>80000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>78000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>88000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>90000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>93000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>94701000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>96301000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>97991000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>92031000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>89712000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>90845000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18">
         <v>5000000</v>
-      </c>
-      <c r="K18">
-        <v>4000000</v>
       </c>
       <c r="L18">
         <v>4000000</v>
       </c>
       <c r="M18">
+        <v>4000000</v>
+      </c>
+      <c r="N18">
         <v>3000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2296,365 +2443,377 @@
         <v>0</v>
       </c>
       <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>-1000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>458000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>481000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>598000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>401000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>467000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>425000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>465000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>283000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>249000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>87000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>77000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>83000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>82676000</v>
+      </c>
+      <c r="C21">
         <v>83286000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>85555000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>86391000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>88425000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>89963000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>91265000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>92750000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>93612000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>93708000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>94701000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>96301000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>97991000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>92031000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>89712000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>90845000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>3302000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>541000000</v>
+        <v>526682000</v>
       </c>
       <c r="C22">
-        <v>567000000</v>
+        <v>541007000</v>
       </c>
       <c r="D22">
-        <v>684000000</v>
+        <v>566908000</v>
       </c>
       <c r="E22">
-        <v>489000000</v>
+        <v>683944000</v>
       </c>
       <c r="F22">
-        <v>557000000</v>
+        <v>489143000</v>
       </c>
       <c r="G22">
+        <v>556619000</v>
+      </c>
+      <c r="H22">
         <v>516063000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>557636000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>376368000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>347965000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>185733000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>177720000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>184839000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>160403000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>150101000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>143663000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>87661000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>67513000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>60220000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>52109000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>66464000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>51439000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>45813000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>48359000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>60029000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>50451000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>40964000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>41426000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>48328000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>42851000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>39089000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>34024000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>45676000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>36606000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>33740000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>28112000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>43548000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>46068000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>34814000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>30380000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>345468000</v>
+      </c>
+      <c r="C23">
         <v>330294000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>325047000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>318119000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>330262000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>323631000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>313683000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>309988000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>329742000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>327646000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>327970000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>328055000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>342541000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>343543000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>341446000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>335425000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>341860000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>336079000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>331056000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>327669000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>331081000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>342113000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>343085000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>339191000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>342311000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>337261000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>333279000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>324950000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>321215000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>317617000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>313586000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>309316000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>307059000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>302320000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>298661000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>295617000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>295557000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>289911000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>286816000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>283161000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>123000</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>123000</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>123000</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>123000</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>123000</v>
       </c>
       <c r="G24">
         <v>123000</v>
@@ -2666,7 +2825,7 @@
         <v>123000</v>
       </c>
       <c r="J24">
-        <v>122000</v>
+        <v>123000</v>
       </c>
       <c r="K24">
         <v>122000</v>
@@ -2690,7 +2849,7 @@
         <v>122000</v>
       </c>
       <c r="R24">
-        <v>121000</v>
+        <v>122000</v>
       </c>
       <c r="S24">
         <v>121000</v>
@@ -2711,7 +2870,7 @@
         <v>121000</v>
       </c>
       <c r="Y24">
-        <v>120000</v>
+        <v>121000</v>
       </c>
       <c r="Z24">
         <v>120000</v>
@@ -2720,13 +2879,13 @@
         <v>120000</v>
       </c>
       <c r="AB24">
-        <v>121000</v>
+        <v>120000</v>
       </c>
       <c r="AC24">
         <v>121000</v>
       </c>
       <c r="AD24">
-        <v>120000</v>
+        <v>121000</v>
       </c>
       <c r="AE24">
         <v>120000</v>
@@ -2741,7 +2900,7 @@
         <v>120000</v>
       </c>
       <c r="AI24">
-        <v>119000</v>
+        <v>120000</v>
       </c>
       <c r="AJ24">
         <v>119000</v>
@@ -2758,240 +2917,246 @@
       <c r="AN24">
         <v>119000</v>
       </c>
+      <c r="AO24">
+        <v>119000</v>
+      </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>1069000000</v>
+        <v>1101525000</v>
       </c>
       <c r="C25">
-        <v>1036000000</v>
+        <v>1068662000</v>
       </c>
       <c r="D25">
-        <v>995000000</v>
+        <v>1035723000</v>
       </c>
       <c r="E25">
-        <v>957000000</v>
+        <v>995192000</v>
       </c>
       <c r="F25">
-        <v>930000000</v>
+        <v>956966000</v>
       </c>
       <c r="G25">
+        <v>929853000</v>
+      </c>
+      <c r="H25">
         <v>896977000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>854747000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>799369000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>749211000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>704219000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>643129000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>591086000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>560164000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>525430000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>496562000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>463252000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>433227000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>410419000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>385725000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>353583000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>332506000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>310777000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>285150000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>255140000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>231743000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>210606000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>187228000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>168011000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>150975000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>135721000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>118943000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>101813000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>86158000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>74650000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>62471000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>51042000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>32794000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>19467000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>4977000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>320252000</v>
+        <v>328326000</v>
       </c>
       <c r="C26">
         <v>320252000</v>
       </c>
       <c r="D26">
+        <v>320252000</v>
+      </c>
+      <c r="E26">
         <v>271512000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>232712000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>187715000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>183479000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>170043000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>169523000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>168841000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>164676000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>158803000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>153388000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>196402000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>193632000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>190146000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>184962000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>178776000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>172695000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>166059000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>159791000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>153682000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>141477000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>129537000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>117330000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>107279000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>98805000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>94604000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>93405000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>90272000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>84711000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>79186000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>70247000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>57715000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>46021000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>35659000</v>
-      </c>
-      <c r="AK26">
-        <v>32273000</v>
       </c>
       <c r="AL26">
         <v>32273000</v>
@@ -3002,786 +3167,804 @@
       <c r="AN26">
         <v>32273000</v>
       </c>
+      <c r="AO26">
+        <v>32273000</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>1019000000</v>
+        <v>1081093000</v>
       </c>
       <c r="C27">
-        <v>1001000000</v>
+        <v>1018740000</v>
       </c>
       <c r="D27">
-        <v>1024000000</v>
+        <v>1000802000</v>
       </c>
       <c r="E27">
-        <v>1041000000</v>
+        <v>1023541000</v>
       </c>
       <c r="F27">
-        <v>1055000000</v>
+        <v>1041309000</v>
       </c>
       <c r="G27">
+        <v>1055299000</v>
+      </c>
+      <c r="H27">
         <v>1021860000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>988233100</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>955061000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>897539000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>853484000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>797883100</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>770091000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>694623000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>661908000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>631146000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>607878000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>578618000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>557378000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>537164000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>514768000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>510908000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>501228000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>482355000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>468013000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>451700000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>436151000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>410416000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>390713000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>373471000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>359857000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>344670000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>334208000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>326303000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>322979000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>318261000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>310362000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>286620000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>270564000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>252501000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
-        <v>1019000000</v>
+        <v>1081093000</v>
       </c>
       <c r="C28">
-        <v>1001000000</v>
+        <v>1018740000</v>
       </c>
       <c r="D28">
-        <v>1024000000</v>
+        <v>1000802000</v>
       </c>
       <c r="E28">
-        <v>1041000000</v>
+        <v>1023541000</v>
       </c>
       <c r="F28">
-        <v>1055000000</v>
+        <v>1041309000</v>
       </c>
       <c r="G28">
+        <v>1055299000</v>
+      </c>
+      <c r="H28">
         <v>1021860000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>988233000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>955061000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>897539000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>853484000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>797883000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>770091000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>694623000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>661908000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>631146000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>607878000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>578618000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>557378000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>537164000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>514768000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>510908000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>501228000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>482355000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>468013000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>451700000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>436151000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>410416000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>390713000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>373471000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>359857000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>344670000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>334208000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>326303000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>322979000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>318261000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>310362000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>286620000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>270564000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>252501000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>1607775000</v>
+      </c>
+      <c r="C29">
         <v>1559747000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1567710000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1707485000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1530452000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1611918000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1537923000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1545869000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1331429000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1245504000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1039217000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>975603000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>954930000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>855026000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>812009000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>774809000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>695539000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>646131000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>617598000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>589273000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>581232000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>562347000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>547041000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>530714000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>528042000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>502151000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>477115000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>451842000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>439041000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>416322000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>398946000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>378694000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>379884000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>362909000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>356719000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>346373000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>353910000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>332688000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>305378000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>282881000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>37637000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>37640000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>37816000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>37919000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>38026000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>38008000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>37986000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>38005000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>37965000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>37938000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>37915000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>37936000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>37781000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>37753000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>37700000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>37640000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>37597000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>37579000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>37614000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>37621000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>37548000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>37554000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>37543000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>37544000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>37594000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>37637000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>37571000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>37409000</v>
-      </c>
-      <c r="AD30">
-        <v>37308000</v>
       </c>
       <c r="AE30">
         <v>37308000</v>
       </c>
       <c r="AF30">
+        <v>37308000</v>
+      </c>
+      <c r="AG30">
         <v>37339000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>37319000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>37429000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>37569000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>37772000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>37729000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>37626000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>37562000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>37506000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>828239000</v>
+      </c>
+      <c r="C31">
         <v>764064000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>740405900</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>757132000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>770143100</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>780713000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>747082000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>749900000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>712318900</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>691278100</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>646538000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>590204000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>562244000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>632236000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>599424900</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>568567000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>545203000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>515847000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>494511000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>474201000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>451709000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>447753000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>437977000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>419008000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>404570000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>388161000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>372516000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>346685000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>326571000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>308759000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>294576000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>278820000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>267789000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>259314000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>255421000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>250134000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>241665000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>217112000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>199117000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>180378000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
-        <v>-285000000</v>
+        <v>-565485000</v>
       </c>
       <c r="C32">
-        <v>-256000000</v>
+        <v>-318516000</v>
       </c>
       <c r="D32">
-        <v>-329000000</v>
+        <v>-290117000</v>
       </c>
       <c r="E32">
-        <v>-381000000</v>
+        <v>-364629000</v>
       </c>
       <c r="F32">
-        <v>-303000000</v>
+        <v>-416972000</v>
       </c>
       <c r="G32">
+        <v>-338616000</v>
+      </c>
+      <c r="H32">
         <v>-408558000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-279306000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-445028000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-297675000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-345819000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-307127000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-304610000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-464121000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-428362000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-392566000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-486427000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-446186000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-420277000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-400440000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-406535000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-376213000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-365504000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-356214000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-362647000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-332099000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-299605000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-285221000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-284434000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-255892000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-236780000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-223243000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-233787000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-212121000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-198896000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-193528000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-200433000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-177446000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-149947000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-142978000</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>84000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>85000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>86000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>176000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>180000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>91000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>186000000</v>
-      </c>
-      <c r="I33">
-        <v>94000000</v>
       </c>
       <c r="J33">
         <v>94000000</v>
       </c>
       <c r="K33">
+        <v>94000000</v>
+      </c>
+      <c r="L33">
         <v>189701000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>192301000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>195991000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>92031000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>89712000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>90845000</v>
       </c>
     </row>
